--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-13.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1155"/>
+  <dimension ref="A1:G1092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27840,10 +27840,8 @@
           <t>190.0K</t>
         </is>
       </c>
-      <c r="G1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -27877,10 +27875,8 @@
           <t>$-122B</t>
         </is>
       </c>
-      <c r="G1050" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1050" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1051">
@@ -27910,10 +27906,8 @@
           <t>$271B</t>
         </is>
       </c>
-      <c r="G1051" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1051" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1052">
@@ -27943,10 +27937,8 @@
           <t>$393B</t>
         </is>
       </c>
-      <c r="G1052" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1052" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1053">
@@ -27980,10 +27972,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -28017,10 +28007,8 @@
           <t>1860.0K</t>
         </is>
       </c>
-      <c r="G1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -28050,10 +28038,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -28087,10 +28073,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1056" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -28124,10 +28108,8 @@
           <t>54.3</t>
         </is>
       </c>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -28161,10 +28143,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1058" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -28194,10 +28174,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -28227,10 +28205,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -28260,10 +28236,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -28293,10 +28267,8 @@
           <t>64</t>
         </is>
       </c>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1062" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1063">
@@ -28326,10 +28298,8 @@
         </is>
       </c>
       <c r="F1063" t="inlineStr"/>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1063" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1064">
@@ -28355,10 +28325,8 @@
       </c>
       <c r="E1064" t="inlineStr"/>
       <c r="F1064" t="inlineStr"/>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1064" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1065">
@@ -28384,10 +28352,8 @@
       </c>
       <c r="E1065" t="inlineStr"/>
       <c r="F1065" t="inlineStr"/>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1065" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1066">
@@ -28413,10 +28379,8 @@
       </c>
       <c r="E1066" t="inlineStr"/>
       <c r="F1066" t="inlineStr"/>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -28442,10 +28406,8 @@
       </c>
       <c r="E1067" t="inlineStr"/>
       <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -28463,10 +28425,8 @@
       <c r="D1068" t="inlineStr"/>
       <c r="E1068" t="inlineStr"/>
       <c r="F1068" t="inlineStr"/>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -28484,10 +28444,8 @@
       <c r="D1069" t="inlineStr"/>
       <c r="E1069" t="inlineStr"/>
       <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -28513,116 +28471,102 @@
       </c>
       <c r="E1070" t="inlineStr"/>
       <c r="F1070" t="inlineStr"/>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Friday April 04 2025</t>
-        </is>
-      </c>
-      <c r="B1071" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateAPR/10</t>
+        </is>
+      </c>
       <c r="C1071" t="inlineStr"/>
-      <c r="D1071" t="inlineStr"/>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>6.64%</t>
+        </is>
+      </c>
       <c r="E1071" t="inlineStr"/>
       <c r="F1071" t="inlineStr"/>
-      <c r="G1071" t="inlineStr"/>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAR</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr"/>
-      <c r="D1072" t="inlineStr">
-        <is>
-          <t>151K</t>
-        </is>
-      </c>
-      <c r="E1072" t="inlineStr">
-        <is>
-          <t>135K</t>
-        </is>
-      </c>
-      <c r="F1072" t="inlineStr">
-        <is>
-          <t>100.0K</t>
-        </is>
-      </c>
+      <c r="D1072" t="inlineStr"/>
+      <c r="E1072" t="inlineStr"/>
+      <c r="F1072" t="inlineStr"/>
       <c r="G1072" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Unemployment RateMAR</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr"/>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1073" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1073" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>4.623%</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr"/>
+      <c r="F1073" t="inlineStr"/>
       <c r="G1073" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAR</t>
+          <t>Monthly Budget StatementMAR</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr"/>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1074" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$-307B</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr"/>
       <c r="F1074" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$-315.6B</t>
         </is>
       </c>
       <c r="G1074" t="inlineStr">
@@ -28634,64 +28578,40 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAR</t>
+          <t>Fed Balance SheetAPR/09</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr"/>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1075" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1075" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>$6.72T</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr"/>
+      <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1076" t="inlineStr">
-        <is>
-          <t>Participation RateMAR</t>
-        </is>
-      </c>
+          <t>Friday April 11 2025</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr"/>
       <c r="C1076" t="inlineStr"/>
-      <c r="D1076" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
+      <c r="D1076" t="inlineStr"/>
       <c r="E1076" t="inlineStr"/>
-      <c r="F1076" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="inlineStr"/>
     </row>
     <row r="1077">
       <c r="A1077" t="inlineStr">
@@ -28701,28 +28621,24 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAR</t>
+          <t>PPI MoMMAR</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr"/>
       <c r="D1077" t="inlineStr">
         <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1077" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1077" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -28734,24 +28650,24 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Government PayrollsMAR</t>
+          <t>Core PPI MoMMAR</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr"/>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>11K</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1078" t="inlineStr"/>
       <c r="F1078" t="inlineStr">
         <is>
-          <t>-5.0K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="G1078" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28763,23 +28679,19 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAR</t>
+          <t>Core PPI YoYMAR</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr"/>
       <c r="D1079" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="E1079" t="inlineStr">
-        <is>
-          <t>4K</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr"/>
       <c r="F1079" t="inlineStr">
         <is>
-          <t>1.0K</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G1079" t="inlineStr">
@@ -28796,23 +28708,19 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAR</t>
+          <t>PPIMAR</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr"/>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="E1080" t="inlineStr">
-        <is>
-          <t>127K</t>
-        </is>
-      </c>
+          <t>147.953</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr">
         <is>
-          <t>105.0K</t>
+          <t>147.8</t>
         </is>
       </c>
       <c r="G1080" t="inlineStr">
@@ -28829,19 +28737,19 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateMAR</t>
+          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr"/>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1081" t="inlineStr"/>
       <c r="F1081" t="inlineStr">
         <is>
-          <t>8.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1081" t="inlineStr">
@@ -28853,85 +28761,113 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>10:25 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr"/>
-      <c r="D1082" t="inlineStr"/>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E1082" t="inlineStr"/>
-      <c r="F1082" t="inlineStr"/>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1082" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>PPI YoYMAR</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr"/>
-      <c r="D1083" t="inlineStr"/>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="E1083" t="inlineStr"/>
-      <c r="F1083" t="inlineStr"/>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="G1083" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>11:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Michigan Consumer Sentiment PrelAPR</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr"/>
-      <c r="D1084" t="inlineStr"/>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
       <c r="E1084" t="inlineStr"/>
-      <c r="F1084" t="inlineStr"/>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
       <c r="G1084" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/04</t>
+          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr"/>
       <c r="D1085" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="E1085" t="inlineStr"/>
-      <c r="F1085" t="inlineStr"/>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G1085" t="inlineStr">
         <is>
           <t>3</t>
@@ -28941,22 +28877,26 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/04</t>
+          <t>Michigan Consumer Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr"/>
       <c r="D1086" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E1086" t="inlineStr"/>
-      <c r="F1086" t="inlineStr"/>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
       <c r="G1086" t="inlineStr">
         <is>
           <t>3</t>
@@ -28966,59 +28906,95 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>Saturday April 05 2025</t>
-        </is>
-      </c>
-      <c r="B1087" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelAPR</t>
+        </is>
+      </c>
       <c r="C1087" t="inlineStr"/>
-      <c r="D1087" t="inlineStr"/>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
+      </c>
       <c r="E1087" t="inlineStr"/>
-      <c r="F1087" t="inlineStr"/>
-      <c r="G1087" t="inlineStr"/>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>63.4</t>
+        </is>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Sunday April 06 2025</t>
-        </is>
-      </c>
-      <c r="B1088" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelAPR</t>
+        </is>
+      </c>
       <c r="C1088" t="inlineStr"/>
-      <c r="D1088" t="inlineStr"/>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="E1088" t="inlineStr"/>
-      <c r="F1088" t="inlineStr"/>
-      <c r="G1088" t="inlineStr"/>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G1088" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Monday April 07 2025</t>
-        </is>
-      </c>
-      <c r="B1089" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountAPR/11</t>
+        </is>
+      </c>
       <c r="C1089" t="inlineStr"/>
       <c r="D1089" t="inlineStr"/>
       <c r="E1089" t="inlineStr"/>
       <c r="F1089" t="inlineStr"/>
-      <c r="G1089" t="inlineStr"/>
+      <c r="G1089" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountAPR/11</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr"/>
-      <c r="D1090" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
+      <c r="D1090" t="inlineStr"/>
       <c r="E1090" t="inlineStr"/>
       <c r="F1090" t="inlineStr"/>
       <c r="G1090" t="inlineStr">
@@ -29030,1623 +29006,28 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1091" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Saturday April 12 2025</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr"/>
       <c r="C1091" t="inlineStr"/>
-      <c r="D1091" t="inlineStr">
-        <is>
-          <t>4.070%</t>
-        </is>
-      </c>
+      <c r="D1091" t="inlineStr"/>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1091" t="inlineStr"/>
     </row>
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1092" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeFEB</t>
-        </is>
-      </c>
+          <t>Sunday April 13 2025</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr"/>
       <c r="C1092" t="inlineStr"/>
-      <c r="D1092" t="inlineStr">
-        <is>
-          <t>$18.08B</t>
-        </is>
-      </c>
+      <c r="D1092" t="inlineStr"/>
       <c r="E1092" t="inlineStr"/>
-      <c r="F1092" t="inlineStr">
-        <is>
-          <t>$15.0B</t>
-        </is>
-      </c>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="inlineStr"/>
-      <c r="B1093" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1093" t="inlineStr"/>
-      <c r="D1093" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1093" t="inlineStr"/>
-      <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr"/>
-      <c r="B1094" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1094" t="inlineStr"/>
-      <c r="D1094" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1094" t="inlineStr"/>
-      <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>Tuesday April 08 2025</t>
-        </is>
-      </c>
-      <c r="B1095" t="inlineStr"/>
-      <c r="C1095" t="inlineStr"/>
-      <c r="D1095" t="inlineStr"/>
-      <c r="E1095" t="inlineStr"/>
-      <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr"/>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr">
-        <is>
-          <t>100.7</t>
-        </is>
-      </c>
-      <c r="E1096" t="inlineStr"/>
-      <c r="F1096" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1097">
-      <c r="A1097" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1097" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/05</t>
-        </is>
-      </c>
-      <c r="C1097" t="inlineStr"/>
-      <c r="D1097" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E1097" t="inlineStr"/>
-      <c r="F1097" t="inlineStr"/>
-      <c r="G1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1098">
-      <c r="A1098" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1098" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1098" t="inlineStr"/>
-      <c r="D1098" t="inlineStr">
-        <is>
-          <t>3.908%</t>
-        </is>
-      </c>
-      <c r="E1098" t="inlineStr"/>
-      <c r="F1098" t="inlineStr"/>
-      <c r="G1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1099">
-      <c r="A1099" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1099" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1099" t="inlineStr"/>
-      <c r="D1099" t="inlineStr">
-        <is>
-          <t>6.037M</t>
-        </is>
-      </c>
-      <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr"/>
-      <c r="G1099" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1100">
-      <c r="A1100" t="inlineStr">
-        <is>
-          <t>Wednesday April 09 2025</t>
-        </is>
-      </c>
-      <c r="B1100" t="inlineStr"/>
-      <c r="C1100" t="inlineStr"/>
-      <c r="D1100" t="inlineStr"/>
-      <c r="E1100" t="inlineStr"/>
-      <c r="F1100" t="inlineStr"/>
-      <c r="G1100" t="inlineStr"/>
-    </row>
-    <row r="1101">
-      <c r="A1101" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1101" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/04</t>
-        </is>
-      </c>
-      <c r="C1101" t="inlineStr"/>
-      <c r="D1101" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="E1101" t="inlineStr"/>
-      <c r="F1101" t="inlineStr"/>
-      <c r="G1101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1102">
-      <c r="A1102" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1102" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/04</t>
-        </is>
-      </c>
-      <c r="C1102" t="inlineStr"/>
-      <c r="D1102" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
-      <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr"/>
-      <c r="G1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1103">
-      <c r="A1103" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1103" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1103" t="inlineStr"/>
-      <c r="D1103" t="inlineStr">
-        <is>
-          <t>243.6</t>
-        </is>
-      </c>
-      <c r="E1103" t="inlineStr"/>
-      <c r="F1103" t="inlineStr"/>
-      <c r="G1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1104" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1104" t="inlineStr"/>
-      <c r="D1104" t="inlineStr">
-        <is>
-          <t>710.4</t>
-        </is>
-      </c>
-      <c r="E1104" t="inlineStr"/>
-      <c r="F1104" t="inlineStr"/>
-      <c r="G1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1105" t="inlineStr"/>
-      <c r="D1105" t="inlineStr">
-        <is>
-          <t>158.2</t>
-        </is>
-      </c>
-      <c r="E1105" t="inlineStr"/>
-      <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1106" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1106" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr">
-        <is>
-          <t>6.165M</t>
-        </is>
-      </c>
-      <c r="E1107" t="inlineStr"/>
-      <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1108" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1108" t="inlineStr"/>
-      <c r="D1108" t="inlineStr">
-        <is>
-          <t>-1.551M</t>
-        </is>
-      </c>
-      <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr"/>
-      <c r="G1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1109" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1109" t="inlineStr"/>
-      <c r="D1109" t="inlineStr">
-        <is>
-          <t>0.999M</t>
-        </is>
-      </c>
-      <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr"/>
-      <c r="G1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1110" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr">
-        <is>
-          <t>2.373M</t>
-        </is>
-      </c>
-      <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>0.164M</t>
-        </is>
-      </c>
-      <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr"/>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>0.264M</t>
-        </is>
-      </c>
-      <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr"/>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr">
-        <is>
-          <t>0.062M</t>
-        </is>
-      </c>
-      <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr"/>
-      <c r="G1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1114" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1114" t="inlineStr"/>
-      <c r="D1114" t="inlineStr">
-        <is>
-          <t>0.209M</t>
-        </is>
-      </c>
-      <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1115" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1115" t="inlineStr"/>
-      <c r="D1115" t="inlineStr">
-        <is>
-          <t>-0.192M</t>
-        </is>
-      </c>
-      <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1116" t="inlineStr"/>
-      <c r="D1116" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1116" t="inlineStr"/>
-      <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr">
-        <is>
-          <t>4.310%</t>
-        </is>
-      </c>
-      <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1118" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C1118" t="inlineStr"/>
-      <c r="D1118" t="inlineStr"/>
-      <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>Thursday April 10 2025</t>
-        </is>
-      </c>
-      <c r="B1119" t="inlineStr"/>
-      <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
-      <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1122" t="inlineStr"/>
-      <c r="D1122" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr">
-        <is>
-          <t>CPIMAR</t>
-        </is>
-      </c>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr">
-        <is>
-          <t>319.082</t>
-        </is>
-      </c>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr">
-        <is>
-          <t>CPI s.aMAR</t>
-        </is>
-      </c>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr">
-        <is>
-          <t>319.775</t>
-        </is>
-      </c>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/29</t>
-        </is>
-      </c>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr">
-        <is>
-          <t>1903K</t>
-        </is>
-      </c>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr">
-        <is>
-          <t>1915.0K</t>
-        </is>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1128" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/05</t>
-        </is>
-      </c>
-      <c r="C1128" t="inlineStr"/>
-      <c r="D1128" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E1128" t="inlineStr"/>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr">
-        <is>
-          <t>29Bcf</t>
-        </is>
-      </c>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1131" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr"/>
-      <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr"/>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr"/>
-      <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr"/>
-      <c r="G1132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1133" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr">
-        <is>
-          <t>5.82%</t>
-        </is>
-      </c>
-      <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1134" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1134" t="inlineStr"/>
-      <c r="D1134" t="inlineStr">
-        <is>
-          <t>6.64%</t>
-        </is>
-      </c>
-      <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr"/>
-      <c r="E1135" t="inlineStr"/>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>4.623%</t>
-        </is>
-      </c>
-      <c r="E1136" t="inlineStr"/>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAR</t>
-        </is>
-      </c>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr">
-        <is>
-          <t>$-307B</t>
-        </is>
-      </c>
-      <c r="E1137" t="inlineStr"/>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>$-315.6B</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/09</t>
-        </is>
-      </c>
-      <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>$6.72T</t>
-        </is>
-      </c>
-      <c r="E1138" t="inlineStr"/>
-      <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
-      <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>PPIMAR</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr"/>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr"/>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr"/>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
